--- a/My project (1)/Assets/Data/Data.xlsx
+++ b/My project (1)/Assets/Data/Data.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Project\ProjectBS\ProjectBS\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2387933b47cb55fc/문서/GitHub/UnityBasic2/My project (1)/Assets/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5624E0-82EA-45F1-8ED0-E4766F84D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{9D5624E0-82EA-45F1-8ED0-E4766F84D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{761B4984-3089-42F5-AFEC-C7A6E4114615}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Test (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Character" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,17 +27,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Name_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbno</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterNameTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -59,12 +89,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,8 +115,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -361,28 +412,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="43.625" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23A9A7E-4E9E-4103-9D06-432AA40FD4DF}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="43.625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54146B35-A0CC-4468-AF8D-AD6322EBE249}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
